--- a/Exercicios_CSharp.xlsx
+++ b/Exercicios_CSharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pointcondominio-my.sharepoint.com/personal/eric_silva_pointcondominio_onmicrosoft_com/Documents/Área de Trabalho/Codigos/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1CCDF81-B411-4D21-BB4A-A35E367BDEE4}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/Exercicios_CSharp.xlsx
+++ b/Exercicios_CSharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pointcondominio-my.sharepoint.com/personal/eric_silva_pointcondominio_onmicrosoft_com/Documents/Área de Trabalho/Codigos/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1CCDF81-B411-4D21-BB4A-A35E367BDEE4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E19AF2B-CCB8-4EC3-900A-23B3E4EFAAE6}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -243,12 +251,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
@@ -579,7 +594,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,8 +673,8 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="b">
-        <v>0</v>
+      <c r="C7" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/Exercicios_CSharp.xlsx
+++ b/Exercicios_CSharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pointcondominio-my.sharepoint.com/personal/eric_silva_pointcondominio_onmicrosoft_com/Documents/Área de Trabalho/Codigos/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E19AF2B-CCB8-4EC3-900A-23B3E4EFAAE6}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DD03B7-4660-4EB9-AC38-D734CB56C54A}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/Exercicios_CSharp.xlsx
+++ b/Exercicios_CSharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pointcondominio-my.sharepoint.com/personal/eric_silva_pointcondominio_onmicrosoft_com/Documents/Área de Trabalho/Codigos/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DD03B7-4660-4EB9-AC38-D734CB56C54A}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A48287-4F7A-4A6D-A478-3AD7EBE378D2}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,8 +717,8 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="b">
-        <v>0</v>
+      <c r="C11" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/Exercicios_CSharp.xlsx
+++ b/Exercicios_CSharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pointcondominio-my.sharepoint.com/personal/eric_silva_pointcondominio_onmicrosoft_com/Documents/Área de Trabalho/Codigos/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A48287-4F7A-4A6D-A478-3AD7EBE378D2}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B769503-7FFB-4E07-9CB8-C14C4455B6E8}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">

--- a/Exercicios_CSharp.xlsx
+++ b/Exercicios_CSharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pointcondominio-my.sharepoint.com/personal/eric_silva_pointcondominio_onmicrosoft_com/Documents/Área de Trabalho/Codigos/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B769503-7FFB-4E07-9CB8-C14C4455B6E8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{DB2AB491-045B-4B4E-AE3A-D288C1495533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551F84A6-A83D-47FB-9F18-CC88D64218A6}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
